--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_24aug2021.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_24aug2021.xlsx
@@ -675,7 +675,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -971,14 +982,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -2262,6 +2275,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
